--- a/biology/Médecine/Agence_fédérale_des_médicaments_et_des_produits_de_santé/Agence_fédérale_des_médicaments_et_des_produits_de_santé.xlsx
+++ b/biology/Médecine/Agence_fédérale_des_médicaments_et_des_produits_de_santé/Agence_fédérale_des_médicaments_et_des_produits_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Belgique, l’Agence fédérale des médicaments et des produits de santé (AFMPS, néerlandais : federaal agentschap voor geneesmiddelen en gezondheidsproducten, fagg) est l’autorité compétente chargée de veiller à la qualité, la sécurité et l’efficacité des médicaments et des produits de santé (dispositifs médicaux et accessoires, matières premières, sang et composés sanguins d’origine humaine, matériel corporel humain), tant à usage humain que vétérinaire, en développement clinique et sur le marché.
 L’AFMPS collabore avec le secteur académique, l’industrie pharmaceutique et les autres industries concernées, les professionnels de la santé, les autres instances nationales, européennes et mondiales concernées ainsi que les responsables politiques, afin de fournir à la population les médicaments et produits de santé dont elle a besoin et d’aider les patients et citoyens à en faire bon usage.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AFMPS a été créée en 2007 à partir de la Direction générale des Médicaments du Service public fédéral Santé publique, Sécurité de la chaîne alimentaire et Environnement. L'AFMPS a été fondée le 1er janvier 2007 par la loi du 20 juillet 2006 sur la création et le fonctionnement de l'agence fédérale des médicaments et des produits de santé.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Domaines de compétence et activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les domaines de compétence de l'AFMPS sont :
 Recherche et développement
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis sa création, l’AFMPS est passée d’une organisation comptant quelques dizaines de collaborateurs à une agence comptant plus de 500 collaborateurs dont la formation est principalement scientifique. L’agence compte 5 entités : trois directions générales - la DG PRE autorisation, la DG POST autorisation et la DG INSPECTION - ainsi que les services de soutien et les services de l’administrateur général. 
 </t>
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,7 +658,9 @@
           <t>Liste des administrateurs généraux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">2007- 2023 : Xavier De Cuyper
 2023 - présent: Hugues Malonne
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,7 +692,9 @@
           <t>Sites de campagne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">www.medicaments-par-internet.be/fr/
 www.unmedicamentnestpasunbonbon.be
@@ -688,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Agence_f%C3%A9d%C3%A9rale_des_m%C3%A9dicaments_et_des_produits_de_sant%C3%A9</t>
+          <t>Agence_fédérale_des_médicaments_et_des_produits_de_santé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -706,7 +728,9 @@
           <t>Rapports annuels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">2007 – 2008 – 2009 – 2010 – 2011 – 2012 - 2013
 </t>
